--- a/Code/Data/ModelsMetaResults/Time/Manual Recurrence/input 125/input_125_output_63.py_time.xlsx
+++ b/Code/Data/ModelsMetaResults/Time/Manual Recurrence/input 125/input_125_output_63.py_time.xlsx
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anuarnavarro/Desktop/TFG/GitHub/ForecastStockPrices/Code/Data/ModelsMetaResults/Time/Manual Recurrence/input 125/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB3A36E-17DC-BA4B-83A0-BF60C285FE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C687043-173C-F64B-9496-96CDB7BF2026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -409,10 +421,11 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44784</v>
+        <v>44584</v>
       </c>
       <c r="C2">
-        <v>7424</v>
+        <f>B2/60</f>
+        <v>743.06666666666672</v>
       </c>
     </row>
   </sheetData>
